--- a/data/verb_paradigms.xlsx
+++ b/data/verb_paradigms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU363"/>
+  <dimension ref="A1:BV363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -792,11 +797,16 @@
       <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>root_sense</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>root_fv</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -957,9 +967,10 @@
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -1086,9 +1097,14 @@
           <t>plait</t>
         </is>
       </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>plait</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -1195,9 +1211,10 @@
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -1308,9 +1325,10 @@
       <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -1421,9 +1439,10 @@
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -1542,9 +1561,14 @@
           <t>insult</t>
         </is>
       </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>insult</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -1675,9 +1699,14 @@
           <t>insult</t>
         </is>
       </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>insult</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1792,9 +1821,14 @@
           <t>aɾ</t>
         </is>
       </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>aɾ</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1909,9 +1943,14 @@
           <t>aɾ</t>
         </is>
       </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>aɾ</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -2038,9 +2077,14 @@
           <t>stop</t>
         </is>
       </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -2159,9 +2203,14 @@
           <t>touch</t>
         </is>
       </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>touch</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -2368,9 +2417,14 @@
           <t>hold</t>
         </is>
       </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -2553,9 +2607,10 @@
       <c r="BS14" t="inlineStr"/>
       <c r="BT14" t="inlineStr"/>
       <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -2738,9 +2793,10 @@
       <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="inlineStr"/>
       <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -2869,9 +2925,14 @@
           <t>spread</t>
         </is>
       </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -3072,9 +3133,14 @@
           <t>wash</t>
         </is>
       </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>wash</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -3279,9 +3345,14 @@
           <t>milk</t>
         </is>
       </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -3410,9 +3481,14 @@
           <t>return (transitive)</t>
         </is>
       </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>return (transitive)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -3573,9 +3649,14 @@
           <t>go</t>
         </is>
       </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -3736,9 +3817,14 @@
           <t>ɛl</t>
         </is>
       </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>ɛl</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -3867,9 +3953,14 @@
           <t>pull</t>
         </is>
       </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -4070,9 +4161,14 @@
           <t>push</t>
         </is>
       </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>push</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -4201,9 +4297,14 @@
           <t>dance</t>
         </is>
       </c>
+      <c r="BV24" t="inlineStr">
+        <is>
+          <t>dance</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -4352,9 +4453,14 @@
           <t>break</t>
         </is>
       </c>
+      <c r="BV25" t="inlineStr">
+        <is>
+          <t>break</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -4531,9 +4637,14 @@
           <t>break</t>
         </is>
       </c>
+      <c r="BV26" t="inlineStr">
+        <is>
+          <t>break</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -4734,9 +4845,14 @@
           <t>escape</t>
         </is>
       </c>
+      <c r="BV27" t="inlineStr">
+        <is>
+          <t>escape</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -4937,9 +5053,14 @@
           <t>throw</t>
         </is>
       </c>
+      <c r="BV28" t="inlineStr">
+        <is>
+          <t>throw</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -5116,9 +5237,14 @@
           <t>climb down</t>
         </is>
       </c>
+      <c r="BV29" t="inlineStr">
+        <is>
+          <t>climb down</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -5319,9 +5445,14 @@
           <t>fall</t>
         </is>
       </c>
+      <c r="BV30" t="inlineStr">
+        <is>
+          <t>fall</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -5516,9 +5647,14 @@
           <t>wrestle</t>
         </is>
       </c>
+      <c r="BV31" t="inlineStr">
+        <is>
+          <t>wrestle</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -5711,9 +5847,14 @@
           <t>scare</t>
         </is>
       </c>
+      <c r="BV32" t="inlineStr">
+        <is>
+          <t>scare</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -5908,9 +6049,14 @@
           <t>fear</t>
         </is>
       </c>
+      <c r="BV33" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -6105,9 +6251,14 @@
           <t>burn</t>
         </is>
       </c>
+      <c r="BV34" t="inlineStr">
+        <is>
+          <t>burn</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -6342,9 +6493,14 @@
           <t>aɾ</t>
         </is>
       </c>
+      <c r="BV35" t="inlineStr">
+        <is>
+          <t>aɾ</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -6489,9 +6645,14 @@
           <t>deceive</t>
         </is>
       </c>
+      <c r="BV36" t="inlineStr">
+        <is>
+          <t>deceive</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -6734,9 +6895,14 @@
           <t>wait</t>
         </is>
       </c>
+      <c r="BV37" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -6983,9 +7149,14 @@
           <t>love</t>
         </is>
       </c>
+      <c r="BV38" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -7226,9 +7397,14 @@
           <t>press</t>
         </is>
       </c>
+      <c r="BV39" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -7467,9 +7643,14 @@
           <t>look for</t>
         </is>
       </c>
+      <c r="BV40" t="inlineStr">
+        <is>
+          <t>look for</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -7764,9 +7945,14 @@
           <t>spread</t>
         </is>
       </c>
+      <c r="BV41" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
@@ -8005,9 +8191,14 @@
           <t>shake</t>
         </is>
       </c>
+      <c r="BV42" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
@@ -8246,9 +8437,14 @@
           <t>speak to</t>
         </is>
       </c>
+      <c r="BV43" t="inlineStr">
+        <is>
+          <t>speak to</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
@@ -8491,9 +8687,14 @@
           <t>steal</t>
         </is>
       </c>
+      <c r="BV44" t="inlineStr">
+        <is>
+          <t>steal</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
@@ -8732,9 +8933,14 @@
           <t>give</t>
         </is>
       </c>
+      <c r="BV45" t="inlineStr">
+        <is>
+          <t>give</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
@@ -9001,9 +9207,14 @@
           <t>help</t>
         </is>
       </c>
+      <c r="BV46" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
@@ -9242,9 +9453,14 @@
           <t>jump</t>
         </is>
       </c>
+      <c r="BV47" t="inlineStr">
+        <is>
+          <t>jump</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
@@ -9483,9 +9699,14 @@
           <t>wash</t>
         </is>
       </c>
+      <c r="BV48" t="inlineStr">
+        <is>
+          <t>wash</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
@@ -9740,9 +9961,14 @@
           <t>tickle</t>
         </is>
       </c>
+      <c r="BV49" t="inlineStr">
+        <is>
+          <t>tickle</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
@@ -9977,9 +10203,14 @@
           <t>tickle</t>
         </is>
       </c>
+      <c r="BV50" t="inlineStr">
+        <is>
+          <t>tickle</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
@@ -10222,9 +10453,14 @@
           <t>pour</t>
         </is>
       </c>
+      <c r="BV51" t="inlineStr">
+        <is>
+          <t>pour</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
@@ -10463,9 +10699,14 @@
           <t>touch</t>
         </is>
       </c>
+      <c r="BV52" t="inlineStr">
+        <is>
+          <t>touch</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
@@ -10704,9 +10945,14 @@
           <t>marry</t>
         </is>
       </c>
+      <c r="BV53" t="inlineStr">
+        <is>
+          <t>marry</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
@@ -10945,9 +11191,14 @@
           <t>milk</t>
         </is>
       </c>
+      <c r="BV54" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
@@ -11182,9 +11433,14 @@
           <t>take</t>
         </is>
       </c>
+      <c r="BV55" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
@@ -11333,9 +11589,14 @@
           <t>take</t>
         </is>
       </c>
+      <c r="BV56" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
@@ -11484,9 +11745,14 @@
           <t>take</t>
         </is>
       </c>
+      <c r="BV57" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
@@ -11729,9 +11995,14 @@
           <t>help</t>
         </is>
       </c>
+      <c r="BV58" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
@@ -12022,9 +12293,14 @@
           <t>chase</t>
         </is>
       </c>
+      <c r="BV59" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
@@ -12263,9 +12539,14 @@
           <t>burn</t>
         </is>
       </c>
+      <c r="BV60" t="inlineStr">
+        <is>
+          <t>burn</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
@@ -12504,9 +12785,14 @@
           <t>mix</t>
         </is>
       </c>
+      <c r="BV61" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
@@ -12745,9 +13031,14 @@
           <t>call</t>
         </is>
       </c>
+      <c r="BV62" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
@@ -13042,9 +13333,14 @@
           <t>return (transitive)</t>
         </is>
       </c>
+      <c r="BV63" t="inlineStr">
+        <is>
+          <t>return (transitive)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
@@ -13287,9 +13583,14 @@
           <t>visit</t>
         </is>
       </c>
+      <c r="BV64" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
@@ -13552,9 +13853,14 @@
           <t>teach/learn</t>
         </is>
       </c>
+      <c r="BV65" t="inlineStr">
+        <is>
+          <t>teach/learn</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
@@ -13797,9 +14103,14 @@
           <t>ride</t>
         </is>
       </c>
+      <c r="BV66" t="inlineStr">
+        <is>
+          <t>ride</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
@@ -14038,9 +14349,14 @@
           <t>climb up</t>
         </is>
       </c>
+      <c r="BV67" t="inlineStr">
+        <is>
+          <t>climb up</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
@@ -14287,9 +14603,14 @@
           <t>fetch</t>
         </is>
       </c>
+      <c r="BV68" t="inlineStr">
+        <is>
+          <t>fetch</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
@@ -14528,9 +14849,14 @@
           <t>sing</t>
         </is>
       </c>
+      <c r="BV69" t="inlineStr">
+        <is>
+          <t>sing</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
@@ -14777,9 +15103,14 @@
           <t>carry</t>
         </is>
       </c>
+      <c r="BV70" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
@@ -15026,9 +15357,14 @@
           <t>shave</t>
         </is>
       </c>
+      <c r="BV71" t="inlineStr">
+        <is>
+          <t>shave</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
@@ -15275,9 +15611,14 @@
           <t>forget</t>
         </is>
       </c>
+      <c r="BV72" t="inlineStr">
+        <is>
+          <t>forget</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
@@ -15576,9 +15917,14 @@
           <t>push</t>
         </is>
       </c>
+      <c r="BV73" t="inlineStr">
+        <is>
+          <t>push</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
@@ -15821,9 +16167,14 @@
           <t>kill</t>
         </is>
       </c>
+      <c r="BV74" t="inlineStr">
+        <is>
+          <t>kill</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
@@ -16066,9 +16417,14 @@
           <t>shatter</t>
         </is>
       </c>
+      <c r="BV75" t="inlineStr">
+        <is>
+          <t>shatter</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
@@ -16311,9 +16667,14 @@
           <t>braid</t>
         </is>
       </c>
+      <c r="BV76" t="inlineStr">
+        <is>
+          <t>braid</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
@@ -16552,9 +16913,14 @@
           <t>know</t>
         </is>
       </c>
+      <c r="BV77" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
@@ -16797,9 +17163,14 @@
           <t>speak</t>
         </is>
       </c>
+      <c r="BV78" t="inlineStr">
+        <is>
+          <t>speak</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
@@ -17042,9 +17413,14 @@
           <t>plait</t>
         </is>
       </c>
+      <c r="BV79" t="inlineStr">
+        <is>
+          <t>plait</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
@@ -17331,9 +17707,14 @@
           <t>exit</t>
         </is>
       </c>
+      <c r="BV80" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
@@ -17576,9 +17957,14 @@
           <t>take</t>
         </is>
       </c>
+      <c r="BV81" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
@@ -17817,9 +18203,14 @@
           <t>refuse/hate</t>
         </is>
       </c>
+      <c r="BV82" t="inlineStr">
+        <is>
+          <t>refuse/hate</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
@@ -18058,9 +18449,14 @@
           <t>tear</t>
         </is>
       </c>
+      <c r="BV83" t="inlineStr">
+        <is>
+          <t>tear</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
@@ -18307,9 +18703,14 @@
           <t>listen</t>
         </is>
       </c>
+      <c r="BV84" t="inlineStr">
+        <is>
+          <t>listen</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
@@ -18568,9 +18969,14 @@
           <t>look</t>
         </is>
       </c>
+      <c r="BV85" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
@@ -18813,9 +19219,14 @@
           <t>build</t>
         </is>
       </c>
+      <c r="BV86" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
@@ -18960,9 +19371,14 @@
           <t>build</t>
         </is>
       </c>
+      <c r="BV87" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
@@ -19107,9 +19523,14 @@
           <t>build</t>
         </is>
       </c>
+      <c r="BV88" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
@@ -19348,9 +19769,14 @@
           <t>run</t>
         </is>
       </c>
+      <c r="BV89" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
@@ -19593,9 +20019,14 @@
           <t>dance</t>
         </is>
       </c>
+      <c r="BV90" t="inlineStr">
+        <is>
+          <t>dance</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
@@ -19834,9 +20265,14 @@
           <t>close</t>
         </is>
       </c>
+      <c r="BV91" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
@@ -20071,9 +20507,14 @@
           <t>stab</t>
         </is>
       </c>
+      <c r="BV92" t="inlineStr">
+        <is>
+          <t>stab</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
@@ -20312,9 +20753,14 @@
           <t>slice</t>
         </is>
       </c>
+      <c r="BV93" t="inlineStr">
+        <is>
+          <t>slice</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
@@ -20553,9 +20999,14 @@
           <t>write</t>
         </is>
       </c>
+      <c r="BV94" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
@@ -20794,9 +21245,14 @@
           <t>throw</t>
         </is>
       </c>
+      <c r="BV95" t="inlineStr">
+        <is>
+          <t>throw</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
@@ -21135,9 +21591,14 @@
           <t>pull</t>
         </is>
       </c>
+      <c r="BV96" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
@@ -21376,9 +21837,14 @@
           <t>sweep</t>
         </is>
       </c>
+      <c r="BV97" t="inlineStr">
+        <is>
+          <t>sweep</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
@@ -21621,9 +22087,14 @@
           <t>bite</t>
         </is>
       </c>
+      <c r="BV98" t="inlineStr">
+        <is>
+          <t>bite</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
@@ -21882,9 +22353,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV99" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
@@ -22123,9 +22599,14 @@
           <t>slice</t>
         </is>
       </c>
+      <c r="BV100" t="inlineStr">
+        <is>
+          <t>slice</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
@@ -22388,9 +22869,14 @@
           <t>refuse/hate</t>
         </is>
       </c>
+      <c r="BV101" t="inlineStr">
+        <is>
+          <t>refuse/hate</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
@@ -22625,9 +23111,14 @@
           <t>scratch</t>
         </is>
       </c>
+      <c r="BV102" t="inlineStr">
+        <is>
+          <t>scratch</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
@@ -22870,9 +23361,14 @@
           <t>hold</t>
         </is>
       </c>
+      <c r="BV103" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
@@ -23115,9 +23611,14 @@
           <t>care</t>
         </is>
       </c>
+      <c r="BV104" t="inlineStr">
+        <is>
+          <t>care</t>
+        </is>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
@@ -23404,9 +23905,14 @@
           <t>enter</t>
         </is>
       </c>
+      <c r="BV105" t="inlineStr">
+        <is>
+          <t>enter</t>
+        </is>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
@@ -23651,9 +24157,14 @@
           <t>remember</t>
         </is>
       </c>
+      <c r="BV106" t="inlineStr">
+        <is>
+          <t>remember</t>
+        </is>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
@@ -23892,9 +24403,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV107" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
@@ -24125,9 +24641,10 @@
       <c r="BS108" t="inlineStr"/>
       <c r="BT108" t="inlineStr"/>
       <c r="BU108" t="inlineStr"/>
+      <c r="BV108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
@@ -24378,9 +24895,14 @@
           <t>buy/sell</t>
         </is>
       </c>
+      <c r="BV109" t="inlineStr">
+        <is>
+          <t>buy/sell</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
@@ -24619,9 +25141,14 @@
           <t>find</t>
         </is>
       </c>
+      <c r="BV110" t="inlineStr">
+        <is>
+          <t>find</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
@@ -24876,9 +25403,14 @@
           <t>ɔɔ</t>
         </is>
       </c>
+      <c r="BV111" t="inlineStr">
+        <is>
+          <t>ɔɔ</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
@@ -25125,9 +25657,14 @@
           <t>open</t>
         </is>
       </c>
+      <c r="BV112" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
@@ -25280,9 +25817,14 @@
           <t>open</t>
         </is>
       </c>
+      <c r="BV113" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
@@ -25411,9 +25953,14 @@
           <t>open</t>
         </is>
       </c>
+      <c r="BV114" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
@@ -25558,9 +26105,14 @@
           <t>open</t>
         </is>
       </c>
+      <c r="BV115" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
@@ -25799,9 +26351,14 @@
           <t>smell</t>
         </is>
       </c>
+      <c r="BV116" t="inlineStr">
+        <is>
+          <t>smell</t>
+        </is>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
@@ -26064,9 +26621,14 @@
           <t>rest</t>
         </is>
       </c>
+      <c r="BV117" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
@@ -26305,9 +26867,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV118" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
@@ -26554,9 +27121,14 @@
           <t>drink</t>
         </is>
       </c>
+      <c r="BV119" t="inlineStr">
+        <is>
+          <t>drink</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
@@ -26701,9 +27273,14 @@
           <t>drink</t>
         </is>
       </c>
+      <c r="BV120" t="inlineStr">
+        <is>
+          <t>drink</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
@@ -26848,9 +27425,14 @@
           <t>drink</t>
         </is>
       </c>
+      <c r="BV121" t="inlineStr">
+        <is>
+          <t>drink</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
@@ -26995,9 +27577,14 @@
           <t>drink</t>
         </is>
       </c>
+      <c r="BV122" t="inlineStr">
+        <is>
+          <t>drink</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
@@ -27236,9 +27823,14 @@
           <t>cough</t>
         </is>
       </c>
+      <c r="BV123" t="inlineStr">
+        <is>
+          <t>cough</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
@@ -27481,9 +28073,14 @@
           <t>kindle</t>
         </is>
       </c>
+      <c r="BV124" t="inlineStr">
+        <is>
+          <t>kindle</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
@@ -27722,9 +28319,14 @@
           <t>count</t>
         </is>
       </c>
+      <c r="BV125" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
@@ -27963,9 +28565,14 @@
           <t>laugh</t>
         </is>
       </c>
+      <c r="BV126" t="inlineStr">
+        <is>
+          <t>laugh</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
@@ -28261,9 +28868,14 @@
           <t>throw</t>
         </is>
       </c>
+      <c r="BV127" t="inlineStr">
+        <is>
+          <t>throw</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
@@ -28502,9 +29114,14 @@
           <t>sip</t>
         </is>
       </c>
+      <c r="BV128" t="inlineStr">
+        <is>
+          <t>sip</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
@@ -28803,9 +29420,14 @@
           <t>dance</t>
         </is>
       </c>
+      <c r="BV129" t="inlineStr">
+        <is>
+          <t>dance</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
@@ -29044,9 +29666,14 @@
           <t>form</t>
         </is>
       </c>
+      <c r="BV130" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
@@ -29289,9 +29916,14 @@
           <t>see</t>
         </is>
       </c>
+      <c r="BV131" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
@@ -29530,9 +30162,14 @@
           <t>die</t>
         </is>
       </c>
+      <c r="BV132" t="inlineStr">
+        <is>
+          <t>die</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
@@ -29783,9 +30420,14 @@
           <t>break</t>
         </is>
       </c>
+      <c r="BV133" t="inlineStr">
+        <is>
+          <t>break</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
@@ -30032,9 +30674,14 @@
           <t>sleep</t>
         </is>
       </c>
+      <c r="BV134" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
@@ -30273,9 +30920,14 @@
           <t>be lost</t>
         </is>
       </c>
+      <c r="BV135" t="inlineStr">
+        <is>
+          <t>be lost</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
@@ -30522,9 +31174,14 @@
           <t>run</t>
         </is>
       </c>
+      <c r="BV136" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
@@ -30779,9 +31436,14 @@
           <t>stop</t>
         </is>
       </c>
+      <c r="BV137" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
@@ -31020,9 +31682,14 @@
           <t>fall</t>
         </is>
       </c>
+      <c r="BV138" t="inlineStr">
+        <is>
+          <t>fall</t>
+        </is>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
@@ -31261,9 +31928,14 @@
           <t>wait</t>
         </is>
       </c>
+      <c r="BV139" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
@@ -31558,9 +32230,14 @@
           <t>climb down</t>
         </is>
       </c>
+      <c r="BV140" t="inlineStr">
+        <is>
+          <t>climb down</t>
+        </is>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
@@ -31799,9 +32476,14 @@
           <t>jump</t>
         </is>
       </c>
+      <c r="BV141" t="inlineStr">
+        <is>
+          <t>jump</t>
+        </is>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
@@ -32040,9 +32722,14 @@
           <t>put</t>
         </is>
       </c>
+      <c r="BV142" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
@@ -32281,9 +32968,14 @@
           <t>ask</t>
         </is>
       </c>
+      <c r="BV143" t="inlineStr">
+        <is>
+          <t>ask</t>
+        </is>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
@@ -32518,9 +33210,14 @@
           <t>urinate</t>
         </is>
       </c>
+      <c r="BV144" t="inlineStr">
+        <is>
+          <t>urinate</t>
+        </is>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
@@ -32755,9 +33452,10 @@
       <c r="BS145" t="inlineStr"/>
       <c r="BT145" t="inlineStr"/>
       <c r="BU145" t="inlineStr"/>
+      <c r="BV145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
@@ -33004,9 +33702,14 @@
           <t>rise</t>
         </is>
       </c>
+      <c r="BV146" t="inlineStr">
+        <is>
+          <t>rise</t>
+        </is>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
@@ -33245,9 +33948,14 @@
           <t>return</t>
         </is>
       </c>
+      <c r="BV147" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
@@ -33340,9 +34048,10 @@
       <c r="BS148" t="inlineStr"/>
       <c r="BT148" t="inlineStr"/>
       <c r="BU148" t="inlineStr"/>
+      <c r="BV148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
@@ -33439,9 +34148,10 @@
       <c r="BS149" t="inlineStr"/>
       <c r="BT149" t="inlineStr"/>
       <c r="BU149" t="inlineStr"/>
+      <c r="BV149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
@@ -33534,9 +34244,10 @@
       <c r="BS150" t="inlineStr"/>
       <c r="BT150" t="inlineStr"/>
       <c r="BU150" t="inlineStr"/>
+      <c r="BV150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
@@ -33637,9 +34348,10 @@
       <c r="BS151" t="inlineStr"/>
       <c r="BT151" t="inlineStr"/>
       <c r="BU151" t="inlineStr"/>
+      <c r="BV151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
@@ -33736,9 +34448,10 @@
       <c r="BS152" t="inlineStr"/>
       <c r="BT152" t="inlineStr"/>
       <c r="BU152" t="inlineStr"/>
+      <c r="BV152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
@@ -33839,9 +34552,10 @@
       <c r="BS153" t="inlineStr"/>
       <c r="BT153" t="inlineStr"/>
       <c r="BU153" t="inlineStr"/>
+      <c r="BV153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
@@ -33942,9 +34656,10 @@
       <c r="BS154" t="inlineStr"/>
       <c r="BT154" t="inlineStr"/>
       <c r="BU154" t="inlineStr"/>
+      <c r="BV154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
@@ -34041,9 +34756,10 @@
       <c r="BS155" t="inlineStr"/>
       <c r="BT155" t="inlineStr"/>
       <c r="BU155" t="inlineStr"/>
+      <c r="BV155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
@@ -34148,9 +34864,10 @@
       <c r="BS156" t="inlineStr"/>
       <c r="BT156" t="inlineStr"/>
       <c r="BU156" t="inlineStr"/>
+      <c r="BV156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
@@ -34263,9 +34980,14 @@
           <t>be named</t>
         </is>
       </c>
+      <c r="BV157" t="inlineStr">
+        <is>
+          <t>be named</t>
+        </is>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
@@ -34376,9 +35098,10 @@
       <c r="BS158" t="inlineStr"/>
       <c r="BT158" t="inlineStr"/>
       <c r="BU158" t="inlineStr"/>
+      <c r="BV158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
@@ -34479,9 +35202,10 @@
       <c r="BS159" t="inlineStr"/>
       <c r="BT159" t="inlineStr"/>
       <c r="BU159" t="inlineStr"/>
+      <c r="BV159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
@@ -34578,9 +35302,10 @@
       <c r="BS160" t="inlineStr"/>
       <c r="BT160" t="inlineStr"/>
       <c r="BU160" t="inlineStr"/>
+      <c r="BV160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
@@ -34681,9 +35406,10 @@
       <c r="BS161" t="inlineStr"/>
       <c r="BT161" t="inlineStr"/>
       <c r="BU161" t="inlineStr"/>
+      <c r="BV161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
@@ -34790,9 +35516,10 @@
       <c r="BS162" t="inlineStr"/>
       <c r="BT162" t="inlineStr"/>
       <c r="BU162" t="inlineStr"/>
+      <c r="BV162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
@@ -34919,9 +35646,10 @@
       <c r="BS163" t="inlineStr"/>
       <c r="BT163" t="inlineStr"/>
       <c r="BU163" t="inlineStr"/>
+      <c r="BV163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
@@ -35026,9 +35754,10 @@
       <c r="BS164" t="inlineStr"/>
       <c r="BT164" t="inlineStr"/>
       <c r="BU164" t="inlineStr"/>
+      <c r="BV164" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
@@ -35121,9 +35850,10 @@
       <c r="BS165" t="inlineStr"/>
       <c r="BT165" t="inlineStr"/>
       <c r="BU165" t="inlineStr"/>
+      <c r="BV165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
@@ -35224,9 +35954,10 @@
       <c r="BS166" t="inlineStr"/>
       <c r="BT166" t="inlineStr"/>
       <c r="BU166" t="inlineStr"/>
+      <c r="BV166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
@@ -35331,9 +36062,10 @@
       <c r="BS167" t="inlineStr"/>
       <c r="BT167" t="inlineStr"/>
       <c r="BU167" t="inlineStr"/>
+      <c r="BV167" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
@@ -35450,9 +36182,10 @@
       <c r="BS168" t="inlineStr"/>
       <c r="BT168" t="inlineStr"/>
       <c r="BU168" t="inlineStr"/>
+      <c r="BV168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
@@ -35603,9 +36336,14 @@
           <t>plough</t>
         </is>
       </c>
+      <c r="BV169" t="inlineStr">
+        <is>
+          <t>plough</t>
+        </is>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
@@ -35756,9 +36494,14 @@
           <t>hide</t>
         </is>
       </c>
+      <c r="BV170" t="inlineStr">
+        <is>
+          <t>hide</t>
+        </is>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
@@ -35917,9 +36660,14 @@
           <t>yawn</t>
         </is>
       </c>
+      <c r="BV171" t="inlineStr">
+        <is>
+          <t>yawn</t>
+        </is>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
@@ -36060,9 +36808,14 @@
           <t>grind</t>
         </is>
       </c>
+      <c r="BV172" t="inlineStr">
+        <is>
+          <t>grind</t>
+        </is>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
@@ -36195,9 +36948,14 @@
           <t>remove</t>
         </is>
       </c>
+      <c r="BV173" t="inlineStr">
+        <is>
+          <t>remove</t>
+        </is>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
@@ -36360,9 +37118,14 @@
           <t>have</t>
         </is>
       </c>
+      <c r="BV174" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
@@ -36487,9 +37250,10 @@
       <c r="BS175" t="inlineStr"/>
       <c r="BT175" t="inlineStr"/>
       <c r="BU175" t="inlineStr"/>
+      <c r="BV175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
@@ -36656,9 +37420,14 @@
           <t>destroy</t>
         </is>
       </c>
+      <c r="BV176" t="inlineStr">
+        <is>
+          <t>destroy</t>
+        </is>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
@@ -36799,9 +37568,14 @@
           <t>beat</t>
         </is>
       </c>
+      <c r="BV177" t="inlineStr">
+        <is>
+          <t>beat</t>
+        </is>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
@@ -36930,9 +37704,14 @@
           <t>set down</t>
         </is>
       </c>
+      <c r="BV178" t="inlineStr">
+        <is>
+          <t>set down</t>
+        </is>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
@@ -37077,9 +37856,14 @@
           <t>bite</t>
         </is>
       </c>
+      <c r="BV179" t="inlineStr">
+        <is>
+          <t>bite</t>
+        </is>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
@@ -37234,9 +38018,14 @@
           <t>cook</t>
         </is>
       </c>
+      <c r="BV180" t="inlineStr">
+        <is>
+          <t>cook</t>
+        </is>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
@@ -37403,9 +38192,14 @@
           <t>step on</t>
         </is>
       </c>
+      <c r="BV181" t="inlineStr">
+        <is>
+          <t>step on</t>
+        </is>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
@@ -37548,9 +38342,14 @@
           <t>lift</t>
         </is>
       </c>
+      <c r="BV182" t="inlineStr">
+        <is>
+          <t>lift</t>
+        </is>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
@@ -37699,9 +38498,14 @@
           <t>stay</t>
         </is>
       </c>
+      <c r="BV183" t="inlineStr">
+        <is>
+          <t>stay</t>
+        </is>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
@@ -37842,9 +38646,14 @@
           <t>fix</t>
         </is>
       </c>
+      <c r="BV184" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
@@ -37985,9 +38794,14 @@
           <t>swallow</t>
         </is>
       </c>
+      <c r="BV185" t="inlineStr">
+        <is>
+          <t>swallow</t>
+        </is>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
@@ -38146,9 +38960,14 @@
           <t>cover</t>
         </is>
       </c>
+      <c r="BV186" t="inlineStr">
+        <is>
+          <t>cover</t>
+        </is>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
@@ -38289,9 +39108,14 @@
           <t>repair</t>
         </is>
       </c>
+      <c r="BV187" t="inlineStr">
+        <is>
+          <t>repair</t>
+        </is>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
@@ -38434,9 +39258,14 @@
           <t>sow/pierce</t>
         </is>
       </c>
+      <c r="BV188" t="inlineStr">
+        <is>
+          <t>sow/pierce</t>
+        </is>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
@@ -38573,9 +39402,14 @@
           <t>lay egg</t>
         </is>
       </c>
+      <c r="BV189" t="inlineStr">
+        <is>
+          <t>lay egg</t>
+        </is>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
@@ -38734,9 +39568,14 @@
           <t>give birth</t>
         </is>
       </c>
+      <c r="BV190" t="inlineStr">
+        <is>
+          <t>give birth</t>
+        </is>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
@@ -38897,9 +39736,14 @@
           <t>taste</t>
         </is>
       </c>
+      <c r="BV191" t="inlineStr">
+        <is>
+          <t>taste</t>
+        </is>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
@@ -39044,9 +39888,14 @@
           <t>shoot/rub</t>
         </is>
       </c>
+      <c r="BV192" t="inlineStr">
+        <is>
+          <t>shoot/rub</t>
+        </is>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
@@ -39189,9 +40038,14 @@
           <t>foregather</t>
         </is>
       </c>
+      <c r="BV193" t="inlineStr">
+        <is>
+          <t>foregather</t>
+        </is>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
@@ -39328,9 +40182,14 @@
           <t>remove</t>
         </is>
       </c>
+      <c r="BV194" t="inlineStr">
+        <is>
+          <t>remove</t>
+        </is>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
@@ -39447,9 +40306,14 @@
           <t>remove</t>
         </is>
       </c>
+      <c r="BV195" t="inlineStr">
+        <is>
+          <t>remove</t>
+        </is>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
@@ -39592,9 +40456,14 @@
           <t>dig</t>
         </is>
       </c>
+      <c r="BV196" t="inlineStr">
+        <is>
+          <t>dig</t>
+        </is>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
@@ -39743,9 +40612,14 @@
           <t>hurt</t>
         </is>
       </c>
+      <c r="BV197" t="inlineStr">
+        <is>
+          <t>hurt</t>
+        </is>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
@@ -39888,9 +40762,14 @@
           <t>allow</t>
         </is>
       </c>
+      <c r="BV198" t="inlineStr">
+        <is>
+          <t>allow</t>
+        </is>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
@@ -40035,9 +40914,14 @@
           <t>breastfeed</t>
         </is>
       </c>
+      <c r="BV199" t="inlineStr">
+        <is>
+          <t>breastfeed</t>
+        </is>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
@@ -40186,9 +41070,14 @@
           <t>mourn</t>
         </is>
       </c>
+      <c r="BV200" t="inlineStr">
+        <is>
+          <t>mourn</t>
+        </is>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
@@ -40337,9 +41226,14 @@
           <t>choose</t>
         </is>
       </c>
+      <c r="BV201" t="inlineStr">
+        <is>
+          <t>choose</t>
+        </is>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="A202" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
@@ -40482,9 +41376,14 @@
           <t>boil</t>
         </is>
       </c>
+      <c r="BV202" t="inlineStr">
+        <is>
+          <t>boil</t>
+        </is>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="A203" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
@@ -40625,9 +41524,10 @@
       <c r="BS203" t="inlineStr"/>
       <c r="BT203" t="inlineStr"/>
       <c r="BU203" t="inlineStr"/>
+      <c r="BV203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="A204" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
@@ -40776,9 +41676,14 @@
           <t>sharpen</t>
         </is>
       </c>
+      <c r="BV204" t="inlineStr">
+        <is>
+          <t>sharpen</t>
+        </is>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="A205" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
@@ -40931,9 +41836,14 @@
           <t>vomit</t>
         </is>
       </c>
+      <c r="BV205" t="inlineStr">
+        <is>
+          <t>vomit</t>
+        </is>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="A206" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
@@ -41124,9 +42034,14 @@
           <t>show</t>
         </is>
       </c>
+      <c r="BV206" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="A207" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
@@ -41321,9 +42236,14 @@
           <t>wrestle (transitive)</t>
         </is>
       </c>
+      <c r="BV207" t="inlineStr">
+        <is>
+          <t>wrestle (transitive)</t>
+        </is>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="A208" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="n">
@@ -41472,9 +42392,14 @@
           <t>wrestle (transitive)</t>
         </is>
       </c>
+      <c r="BV208" t="inlineStr">
+        <is>
+          <t>wrestle (transitive)</t>
+        </is>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="A209" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="n">
@@ -41669,9 +42594,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV209" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="A210" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="n">
@@ -41866,9 +42796,14 @@
           <t>braid</t>
         </is>
       </c>
+      <c r="BV210" t="inlineStr">
+        <is>
+          <t>braid</t>
+        </is>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="A211" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="n">
@@ -42013,9 +42948,14 @@
           <t>braid</t>
         </is>
       </c>
+      <c r="BV211" t="inlineStr">
+        <is>
+          <t>braid</t>
+        </is>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="A212" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="n">
@@ -42124,9 +43064,14 @@
           <t>braid</t>
         </is>
       </c>
+      <c r="BV212" t="inlineStr">
+        <is>
+          <t>braid</t>
+        </is>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="A213" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="n">
@@ -42317,9 +43262,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV213" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="A214" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="n">
@@ -42538,9 +43488,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV214" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="A215" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="n">
@@ -42731,9 +43686,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV215" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="A216" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="n">
@@ -42892,9 +43852,14 @@
           <t>drink</t>
         </is>
       </c>
+      <c r="BV216" t="inlineStr">
+        <is>
+          <t>drink</t>
+        </is>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="A217" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="n">
@@ -43055,9 +44020,14 @@
           <t>enter</t>
         </is>
       </c>
+      <c r="BV217" t="inlineStr">
+        <is>
+          <t>enter</t>
+        </is>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="A218" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="n">
@@ -43214,9 +44184,14 @@
           <t>slice</t>
         </is>
       </c>
+      <c r="BV218" t="inlineStr">
+        <is>
+          <t>slice</t>
+        </is>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="A219" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="n">
@@ -43333,9 +44308,14 @@
           <t>fear</t>
         </is>
       </c>
+      <c r="BV219" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n">
+      <c r="A220" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="n">
@@ -43460,9 +44440,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV220" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n">
+      <c r="A221" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="n">
@@ -43619,9 +44604,14 @@
           <t>see</t>
         </is>
       </c>
+      <c r="BV221" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n">
+      <c r="A222" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="n">
@@ -43742,9 +44732,10 @@
       <c r="BS222" t="inlineStr"/>
       <c r="BT222" t="inlineStr"/>
       <c r="BU222" t="inlineStr"/>
+      <c r="BV222" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n">
+      <c r="A223" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="n">
@@ -43889,9 +44880,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV223" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="A224" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="n">
@@ -44066,9 +45062,14 @@
           <t>fall</t>
         </is>
       </c>
+      <c r="BV224" t="inlineStr">
+        <is>
+          <t>fall</t>
+        </is>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
+      <c r="A225" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="n">
@@ -44169,9 +45170,10 @@
       <c r="BS225" t="inlineStr"/>
       <c r="BT225" t="inlineStr"/>
       <c r="BU225" t="inlineStr"/>
+      <c r="BV225" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n">
+      <c r="A226" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="n">
@@ -44260,9 +45262,10 @@
       <c r="BS226" t="inlineStr"/>
       <c r="BT226" t="inlineStr"/>
       <c r="BU226" t="inlineStr"/>
+      <c r="BV226" t="inlineStr"/>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
+      <c r="A227" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="n">
@@ -44351,9 +45354,10 @@
       <c r="BS227" t="inlineStr"/>
       <c r="BT227" t="inlineStr"/>
       <c r="BU227" t="inlineStr"/>
+      <c r="BV227" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n">
+      <c r="A228" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="n">
@@ -44474,9 +45478,14 @@
           <t>set down</t>
         </is>
       </c>
+      <c r="BV228" t="inlineStr">
+        <is>
+          <t>set down</t>
+        </is>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n">
+      <c r="A229" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="n">
@@ -44593,9 +45602,14 @@
           <t>allow</t>
         </is>
       </c>
+      <c r="BV229" t="inlineStr">
+        <is>
+          <t>allow</t>
+        </is>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
+      <c r="A230" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="n">
@@ -44680,9 +45694,10 @@
       <c r="BS230" t="inlineStr"/>
       <c r="BT230" t="inlineStr"/>
       <c r="BU230" t="inlineStr"/>
+      <c r="BV230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="A231" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="n">
@@ -44775,9 +45790,10 @@
       <c r="BS231" t="inlineStr"/>
       <c r="BT231" t="inlineStr"/>
       <c r="BU231" t="inlineStr"/>
+      <c r="BV231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n">
+      <c r="A232" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="n">
@@ -44888,9 +45904,14 @@
           <t>think about</t>
         </is>
       </c>
+      <c r="BV232" t="inlineStr">
+        <is>
+          <t>think about</t>
+        </is>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n">
+      <c r="A233" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="n">
@@ -45019,9 +46040,14 @@
           <t>carry</t>
         </is>
       </c>
+      <c r="BV233" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="A234" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="n">
@@ -45146,9 +46172,14 @@
           <t>aɾ</t>
         </is>
       </c>
+      <c r="BV234" t="inlineStr">
+        <is>
+          <t>aɾ</t>
+        </is>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="A235" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="n">
@@ -45253,9 +46284,14 @@
           <t>tell</t>
         </is>
       </c>
+      <c r="BV235" t="inlineStr">
+        <is>
+          <t>tell</t>
+        </is>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="A236" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="n">
@@ -45372,9 +46408,14 @@
           <t>shave</t>
         </is>
       </c>
+      <c r="BV236" t="inlineStr">
+        <is>
+          <t>shave</t>
+        </is>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n">
+      <c r="A237" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="n">
@@ -45473,9 +46514,10 @@
       <c r="BS237" t="inlineStr"/>
       <c r="BT237" t="inlineStr"/>
       <c r="BU237" t="inlineStr"/>
+      <c r="BV237" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
+      <c r="A238" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="n">
@@ -45568,9 +46610,10 @@
       <c r="BS238" t="inlineStr"/>
       <c r="BT238" t="inlineStr"/>
       <c r="BU238" t="inlineStr"/>
+      <c r="BV238" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
+      <c r="A239" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="n">
@@ -45729,9 +46772,14 @@
           <t>stop</t>
         </is>
       </c>
+      <c r="BV239" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n">
+      <c r="A240" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="n">
@@ -45844,9 +46892,14 @@
           <t>happen</t>
         </is>
       </c>
+      <c r="BV240" t="inlineStr">
+        <is>
+          <t>happen</t>
+        </is>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
+      <c r="A241" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="n">
@@ -45953,9 +47006,10 @@
       <c r="BS241" t="inlineStr"/>
       <c r="BT241" t="inlineStr"/>
       <c r="BU241" t="inlineStr"/>
+      <c r="BV241" t="inlineStr"/>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="A242" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="n">
@@ -46048,9 +47102,10 @@
       <c r="BS242" t="inlineStr"/>
       <c r="BT242" t="inlineStr"/>
       <c r="BU242" t="inlineStr"/>
+      <c r="BV242" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="A243" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="n">
@@ -46149,9 +47204,10 @@
       <c r="BS243" t="inlineStr"/>
       <c r="BT243" t="inlineStr"/>
       <c r="BU243" t="inlineStr"/>
+      <c r="BV243" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="n">
+      <c r="A244" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="n">
@@ -46284,9 +47340,14 @@
           <t>exit</t>
         </is>
       </c>
+      <c r="BV244" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n">
+      <c r="A245" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="n">
@@ -46383,9 +47444,10 @@
       <c r="BS245" t="inlineStr"/>
       <c r="BT245" t="inlineStr"/>
       <c r="BU245" t="inlineStr"/>
+      <c r="BV245" t="inlineStr"/>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n">
+      <c r="A246" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="n">
@@ -46514,9 +47576,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV246" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n">
+      <c r="A247" t="n">
         <v>245</v>
       </c>
       <c r="B247" t="n">
@@ -46645,9 +47712,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV247" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n">
+      <c r="A248" t="n">
         <v>246</v>
       </c>
       <c r="B248" t="n">
@@ -46776,9 +47848,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV248" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n">
+      <c r="A249" t="n">
         <v>247</v>
       </c>
       <c r="B249" t="n">
@@ -46907,9 +47984,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV249" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n">
+      <c r="A250" t="n">
         <v>248</v>
       </c>
       <c r="B250" t="n">
@@ -47038,9 +48120,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV250" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="A251" t="n">
         <v>249</v>
       </c>
       <c r="B251" t="n">
@@ -47169,9 +48256,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV251" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n">
+      <c r="A252" t="n">
         <v>250</v>
       </c>
       <c r="B252" t="n">
@@ -47300,9 +48392,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV252" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n">
+      <c r="A253" t="n">
         <v>251</v>
       </c>
       <c r="B253" t="n">
@@ -47431,9 +48528,14 @@
           <t>wait</t>
         </is>
       </c>
+      <c r="BV253" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="n">
+      <c r="A254" t="n">
         <v>252</v>
       </c>
       <c r="B254" t="n">
@@ -47586,9 +48688,14 @@
           <t>wait</t>
         </is>
       </c>
+      <c r="BV254" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="A255" t="n">
         <v>253</v>
       </c>
       <c r="B255" t="n">
@@ -47717,9 +48824,14 @@
           <t>visit</t>
         </is>
       </c>
+      <c r="BV255" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="n">
+      <c r="A256" t="n">
         <v>254</v>
       </c>
       <c r="B256" t="n">
@@ -47812,9 +48924,10 @@
       <c r="BS256" t="inlineStr"/>
       <c r="BT256" t="inlineStr"/>
       <c r="BU256" t="inlineStr"/>
+      <c r="BV256" t="inlineStr"/>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="n">
+      <c r="A257" t="n">
         <v>255</v>
       </c>
       <c r="B257" t="n">
@@ -47953,9 +49066,14 @@
           <t>stab</t>
         </is>
       </c>
+      <c r="BV257" t="inlineStr">
+        <is>
+          <t>stab</t>
+        </is>
+      </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="n">
+      <c r="A258" t="n">
         <v>256</v>
       </c>
       <c r="B258" t="n">
@@ -48082,9 +49200,14 @@
           <t>carry</t>
         </is>
       </c>
+      <c r="BV258" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="n">
+      <c r="A259" t="n">
         <v>257</v>
       </c>
       <c r="B259" t="n">
@@ -48199,9 +49322,14 @@
           <t>cook</t>
         </is>
       </c>
+      <c r="BV259" t="inlineStr">
+        <is>
+          <t>cook</t>
+        </is>
+      </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="n">
+      <c r="A260" t="n">
         <v>258</v>
       </c>
       <c r="B260" t="n">
@@ -48316,9 +49444,14 @@
           <t>cook</t>
         </is>
       </c>
+      <c r="BV260" t="inlineStr">
+        <is>
+          <t>cook</t>
+        </is>
+      </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="n">
+      <c r="A261" t="n">
         <v>259</v>
       </c>
       <c r="B261" t="n">
@@ -48433,9 +49566,14 @@
           <t>cook</t>
         </is>
       </c>
+      <c r="BV261" t="inlineStr">
+        <is>
+          <t>cook</t>
+        </is>
+      </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="n">
+      <c r="A262" t="n">
         <v>260</v>
       </c>
       <c r="B262" t="n">
@@ -48582,9 +49720,14 @@
           <t>run</t>
         </is>
       </c>
+      <c r="BV262" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="n">
+      <c r="A263" t="n">
         <v>261</v>
       </c>
       <c r="B263" t="n">
@@ -48699,9 +49842,14 @@
           <t>run</t>
         </is>
       </c>
+      <c r="BV263" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="n">
+      <c r="A264" t="n">
         <v>262</v>
       </c>
       <c r="B264" t="n">
@@ -48828,9 +49976,14 @@
           <t>run</t>
         </is>
       </c>
+      <c r="BV264" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="n">
+      <c r="A265" t="n">
         <v>263</v>
       </c>
       <c r="B265" t="n">
@@ -48957,9 +50110,14 @@
           <t>carry</t>
         </is>
       </c>
+      <c r="BV265" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="n">
+      <c r="A266" t="n">
         <v>264</v>
       </c>
       <c r="B266" t="n">
@@ -49086,9 +50244,14 @@
           <t>step on</t>
         </is>
       </c>
+      <c r="BV266" t="inlineStr">
+        <is>
+          <t>step on</t>
+        </is>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="n">
+      <c r="A267" t="n">
         <v>265</v>
       </c>
       <c r="B267" t="n">
@@ -49203,9 +50366,14 @@
           <t>cook</t>
         </is>
       </c>
+      <c r="BV267" t="inlineStr">
+        <is>
+          <t>cook</t>
+        </is>
+      </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="n">
+      <c r="A268" t="n">
         <v>266</v>
       </c>
       <c r="B268" t="n">
@@ -49320,9 +50488,14 @@
           <t>run</t>
         </is>
       </c>
+      <c r="BV268" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="n">
+      <c r="A269" t="n">
         <v>267</v>
       </c>
       <c r="B269" t="n">
@@ -49449,9 +50622,14 @@
           <t>carry</t>
         </is>
       </c>
+      <c r="BV269" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="n">
+      <c r="A270" t="n">
         <v>268</v>
       </c>
       <c r="B270" t="n">
@@ -49566,9 +50744,14 @@
           <t>run</t>
         </is>
       </c>
+      <c r="BV270" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="n">
+      <c r="A271" t="n">
         <v>269</v>
       </c>
       <c r="B271" t="n">
@@ -49683,9 +50866,14 @@
           <t>run</t>
         </is>
       </c>
+      <c r="BV271" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="n">
+      <c r="A272" t="n">
         <v>270</v>
       </c>
       <c r="B272" t="n">
@@ -49794,9 +50982,14 @@
           <t>run</t>
         </is>
       </c>
+      <c r="BV272" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="n">
+      <c r="A273" t="n">
         <v>271</v>
       </c>
       <c r="B273" t="n">
@@ -49885,9 +51078,10 @@
       <c r="BS273" t="inlineStr"/>
       <c r="BT273" t="inlineStr"/>
       <c r="BU273" t="inlineStr"/>
+      <c r="BV273" t="inlineStr"/>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="n">
+      <c r="A274" t="n">
         <v>272</v>
       </c>
       <c r="B274" t="n">
@@ -49988,9 +51182,10 @@
       <c r="BS274" t="inlineStr"/>
       <c r="BT274" t="inlineStr"/>
       <c r="BU274" t="inlineStr"/>
+      <c r="BV274" t="inlineStr"/>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="n">
+      <c r="A275" t="n">
         <v>273</v>
       </c>
       <c r="B275" t="n">
@@ -50091,9 +51286,10 @@
       <c r="BS275" t="inlineStr"/>
       <c r="BT275" t="inlineStr"/>
       <c r="BU275" t="inlineStr"/>
+      <c r="BV275" t="inlineStr"/>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="n">
+      <c r="A276" t="n">
         <v>274</v>
       </c>
       <c r="B276" t="n">
@@ -50186,9 +51382,10 @@
       <c r="BS276" t="inlineStr"/>
       <c r="BT276" t="inlineStr"/>
       <c r="BU276" t="inlineStr"/>
+      <c r="BV276" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="n">
+      <c r="A277" t="n">
         <v>275</v>
       </c>
       <c r="B277" t="n">
@@ -50273,9 +51470,10 @@
       <c r="BS277" t="inlineStr"/>
       <c r="BT277" t="inlineStr"/>
       <c r="BU277" t="inlineStr"/>
+      <c r="BV277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="n">
+      <c r="A278" t="n">
         <v>276</v>
       </c>
       <c r="B278" t="n">
@@ -50360,9 +51558,10 @@
       <c r="BS278" t="inlineStr"/>
       <c r="BT278" t="inlineStr"/>
       <c r="BU278" t="inlineStr"/>
+      <c r="BV278" t="inlineStr"/>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="n">
+      <c r="A279" t="n">
         <v>277</v>
       </c>
       <c r="B279" t="n">
@@ -50495,9 +51694,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV279" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="n">
+      <c r="A280" t="n">
         <v>278</v>
       </c>
       <c r="B280" t="n">
@@ -50642,9 +51846,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV280" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="n">
+      <c r="A281" t="n">
         <v>279</v>
       </c>
       <c r="B281" t="n">
@@ -50789,9 +51998,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV281" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="n">
+      <c r="A282" t="n">
         <v>280</v>
       </c>
       <c r="B282" t="n">
@@ -50936,9 +52150,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV282" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="n">
+      <c r="A283" t="n">
         <v>281</v>
       </c>
       <c r="B283" t="n">
@@ -51083,9 +52302,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV283" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="n">
+      <c r="A284" t="n">
         <v>282</v>
       </c>
       <c r="B284" t="n">
@@ -51230,9 +52454,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV284" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="n">
+      <c r="A285" t="n">
         <v>283</v>
       </c>
       <c r="B285" t="n">
@@ -51377,9 +52606,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV285" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="n">
+      <c r="A286" t="n">
         <v>284</v>
       </c>
       <c r="B286" t="n">
@@ -51524,9 +52758,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV286" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="n">
+      <c r="A287" t="n">
         <v>285</v>
       </c>
       <c r="B287" t="n">
@@ -51671,9 +52910,14 @@
           <t>show</t>
         </is>
       </c>
+      <c r="BV287" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="n">
+      <c r="A288" t="n">
         <v>286</v>
       </c>
       <c r="B288" t="n">
@@ -51818,9 +53062,14 @@
           <t>show</t>
         </is>
       </c>
+      <c r="BV288" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="n">
+      <c r="A289" t="n">
         <v>287</v>
       </c>
       <c r="B289" t="n">
@@ -51929,9 +53178,14 @@
           <t>show</t>
         </is>
       </c>
+      <c r="BV289" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="n">
+      <c r="A290" t="n">
         <v>288</v>
       </c>
       <c r="B290" t="n">
@@ -52040,9 +53294,14 @@
           <t>show</t>
         </is>
       </c>
+      <c r="BV290" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="n">
+      <c r="A291" t="n">
         <v>289</v>
       </c>
       <c r="B291" t="n">
@@ -52151,9 +53410,14 @@
           <t>show</t>
         </is>
       </c>
+      <c r="BV291" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="n">
+      <c r="A292" t="n">
         <v>290</v>
       </c>
       <c r="B292" t="n">
@@ -52298,9 +53562,14 @@
           <t>carry</t>
         </is>
       </c>
+      <c r="BV292" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="n">
+      <c r="A293" t="n">
         <v>291</v>
       </c>
       <c r="B293" t="n">
@@ -52445,9 +53714,14 @@
           <t>carry</t>
         </is>
       </c>
+      <c r="BV293" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="n">
+      <c r="A294" t="n">
         <v>292</v>
       </c>
       <c r="B294" t="n">
@@ -52592,9 +53866,14 @@
           <t>carry</t>
         </is>
       </c>
+      <c r="BV294" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="n">
+      <c r="A295" t="n">
         <v>293</v>
       </c>
       <c r="B295" t="n">
@@ -52739,9 +54018,14 @@
           <t>call</t>
         </is>
       </c>
+      <c r="BV295" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="n">
+      <c r="A296" t="n">
         <v>294</v>
       </c>
       <c r="B296" t="n">
@@ -52854,9 +54138,14 @@
           <t>call</t>
         </is>
       </c>
+      <c r="BV296" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="n">
+      <c r="A297" t="n">
         <v>295</v>
       </c>
       <c r="B297" t="n">
@@ -52969,9 +54258,14 @@
           <t>call</t>
         </is>
       </c>
+      <c r="BV297" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="n">
+      <c r="A298" t="n">
         <v>296</v>
       </c>
       <c r="B298" t="n">
@@ -53128,9 +54422,14 @@
           <t>close</t>
         </is>
       </c>
+      <c r="BV298" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="n">
+      <c r="A299" t="n">
         <v>297</v>
       </c>
       <c r="B299" t="n">
@@ -53263,9 +54562,14 @@
           <t>close</t>
         </is>
       </c>
+      <c r="BV299" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="n">
+      <c r="A300" t="n">
         <v>298</v>
       </c>
       <c r="B300" t="n">
@@ -53422,9 +54726,14 @@
           <t>close</t>
         </is>
       </c>
+      <c r="BV300" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="n">
+      <c r="A301" t="n">
         <v>299</v>
       </c>
       <c r="B301" t="n">
@@ -53525,9 +54834,14 @@
           <t>help</t>
         </is>
       </c>
+      <c r="BV301" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="n">
+      <c r="A302" t="n">
         <v>300</v>
       </c>
       <c r="B302" t="n">
@@ -53660,9 +54974,14 @@
           <t>hurt</t>
         </is>
       </c>
+      <c r="BV302" t="inlineStr">
+        <is>
+          <t>hurt</t>
+        </is>
+      </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="n">
+      <c r="A303" t="n">
         <v>301</v>
       </c>
       <c r="B303" t="n">
@@ -53807,9 +55126,14 @@
           <t>sharpen</t>
         </is>
       </c>
+      <c r="BV303" t="inlineStr">
+        <is>
+          <t>sharpen</t>
+        </is>
+      </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="n">
+      <c r="A304" t="n">
         <v>302</v>
       </c>
       <c r="B304" t="n">
@@ -53954,9 +55278,14 @@
           <t>grind</t>
         </is>
       </c>
+      <c r="BV304" t="inlineStr">
+        <is>
+          <t>grind</t>
+        </is>
+      </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="n">
+      <c r="A305" t="n">
         <v>303</v>
       </c>
       <c r="B305" t="n">
@@ -54101,9 +55430,14 @@
           <t>put</t>
         </is>
       </c>
+      <c r="BV305" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="n">
+      <c r="A306" t="n">
         <v>304</v>
       </c>
       <c r="B306" t="n">
@@ -54224,9 +55558,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV306" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="n">
+      <c r="A307" t="n">
         <v>305</v>
       </c>
       <c r="B307" t="n">
@@ -54347,9 +55686,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV307" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="n">
+      <c r="A308" t="n">
         <v>306</v>
       </c>
       <c r="B308" t="n">
@@ -54470,9 +55814,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV308" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="n">
+      <c r="A309" t="n">
         <v>307</v>
       </c>
       <c r="B309" t="n">
@@ -54597,9 +55946,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV309" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="n">
+      <c r="A310" t="n">
         <v>308</v>
       </c>
       <c r="B310" t="n">
@@ -54724,9 +56078,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV310" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="n">
+      <c r="A311" t="n">
         <v>309</v>
       </c>
       <c r="B311" t="n">
@@ -54835,9 +56194,14 @@
           <t>see</t>
         </is>
       </c>
+      <c r="BV311" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="n">
+      <c r="A312" t="n">
         <v>310</v>
       </c>
       <c r="B312" t="n">
@@ -54950,9 +56314,14 @@
           <t>see</t>
         </is>
       </c>
+      <c r="BV312" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="n">
+      <c r="A313" t="n">
         <v>311</v>
       </c>
       <c r="B313" t="n">
@@ -55101,9 +56470,14 @@
           <t>see</t>
         </is>
       </c>
+      <c r="BV313" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="n">
+      <c r="A314" t="n">
         <v>312</v>
       </c>
       <c r="B314" t="n">
@@ -55248,9 +56622,14 @@
           <t>look for</t>
         </is>
       </c>
+      <c r="BV314" t="inlineStr">
+        <is>
+          <t>look for</t>
+        </is>
+      </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="n">
+      <c r="A315" t="n">
         <v>313</v>
       </c>
       <c r="B315" t="n">
@@ -55395,9 +56774,14 @@
           <t>look for</t>
         </is>
       </c>
+      <c r="BV315" t="inlineStr">
+        <is>
+          <t>look for</t>
+        </is>
+      </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="n">
+      <c r="A316" t="n">
         <v>314</v>
       </c>
       <c r="B316" t="n">
@@ -55542,9 +56926,14 @@
           <t>look for</t>
         </is>
       </c>
+      <c r="BV316" t="inlineStr">
+        <is>
+          <t>look for</t>
+        </is>
+      </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="n">
+      <c r="A317" t="n">
         <v>315</v>
       </c>
       <c r="B317" t="n">
@@ -55653,9 +57042,14 @@
           <t>look for</t>
         </is>
       </c>
+      <c r="BV317" t="inlineStr">
+        <is>
+          <t>look for</t>
+        </is>
+      </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="n">
+      <c r="A318" t="n">
         <v>316</v>
       </c>
       <c r="B318" t="n">
@@ -55800,9 +57194,14 @@
           <t>slice</t>
         </is>
       </c>
+      <c r="BV318" t="inlineStr">
+        <is>
+          <t>slice</t>
+        </is>
+      </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="n">
+      <c r="A319" t="n">
         <v>317</v>
       </c>
       <c r="B319" t="n">
@@ -55947,9 +57346,14 @@
           <t>slice</t>
         </is>
       </c>
+      <c r="BV319" t="inlineStr">
+        <is>
+          <t>slice</t>
+        </is>
+      </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="n">
+      <c r="A320" t="n">
         <v>318</v>
       </c>
       <c r="B320" t="n">
@@ -56094,9 +57498,14 @@
           <t>drink</t>
         </is>
       </c>
+      <c r="BV320" t="inlineStr">
+        <is>
+          <t>drink</t>
+        </is>
+      </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="n">
+      <c r="A321" t="n">
         <v>319</v>
       </c>
       <c r="B321" t="n">
@@ -56241,9 +57650,14 @@
           <t>break</t>
         </is>
       </c>
+      <c r="BV321" t="inlineStr">
+        <is>
+          <t>break</t>
+        </is>
+      </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="n">
+      <c r="A322" t="n">
         <v>320</v>
       </c>
       <c r="B322" t="n">
@@ -56388,9 +57802,14 @@
           <t>shatter</t>
         </is>
       </c>
+      <c r="BV322" t="inlineStr">
+        <is>
+          <t>shatter</t>
+        </is>
+      </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="n">
+      <c r="A323" t="n">
         <v>321</v>
       </c>
       <c r="B323" t="n">
@@ -56535,9 +57954,14 @@
           <t>fall</t>
         </is>
       </c>
+      <c r="BV323" t="inlineStr">
+        <is>
+          <t>fall</t>
+        </is>
+      </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="n">
+      <c r="A324" t="n">
         <v>322</v>
       </c>
       <c r="B324" t="n">
@@ -56682,9 +58106,14 @@
           <t>call</t>
         </is>
       </c>
+      <c r="BV324" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="n">
+      <c r="A325" t="n">
         <v>323</v>
       </c>
       <c r="B325" t="n">
@@ -56829,9 +58258,14 @@
           <t>jump</t>
         </is>
       </c>
+      <c r="BV325" t="inlineStr">
+        <is>
+          <t>jump</t>
+        </is>
+      </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="n">
+      <c r="A326" t="n">
         <v>324</v>
       </c>
       <c r="B326" t="n">
@@ -56976,9 +58410,14 @@
           <t>return</t>
         </is>
       </c>
+      <c r="BV326" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="n">
+      <c r="A327" t="n">
         <v>325</v>
       </c>
       <c r="B327" t="n">
@@ -57123,9 +58562,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV327" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="n">
+      <c r="A328" t="n">
         <v>326</v>
       </c>
       <c r="B328" t="n">
@@ -57274,9 +58718,14 @@
           <t>eat</t>
         </is>
       </c>
+      <c r="BV328" t="inlineStr">
+        <is>
+          <t>eat</t>
+        </is>
+      </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="n">
+      <c r="A329" t="n">
         <v>327</v>
       </c>
       <c r="B329" t="n">
@@ -57421,9 +58870,14 @@
           <t>sleep</t>
         </is>
       </c>
+      <c r="BV329" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="n">
+      <c r="A330" t="n">
         <v>328</v>
       </c>
       <c r="B330" t="n">
@@ -57568,9 +59022,14 @@
           <t>climb down</t>
         </is>
       </c>
+      <c r="BV330" t="inlineStr">
+        <is>
+          <t>climb down</t>
+        </is>
+      </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="n">
+      <c r="A331" t="n">
         <v>329</v>
       </c>
       <c r="B331" t="n">
@@ -57715,9 +59174,14 @@
           <t>rise</t>
         </is>
       </c>
+      <c r="BV331" t="inlineStr">
+        <is>
+          <t>rise</t>
+        </is>
+      </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="n">
+      <c r="A332" t="n">
         <v>330</v>
       </c>
       <c r="B332" t="n">
@@ -57862,9 +59326,14 @@
           <t>look for</t>
         </is>
       </c>
+      <c r="BV332" t="inlineStr">
+        <is>
+          <t>look for</t>
+        </is>
+      </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="n">
+      <c r="A333" t="n">
         <v>331</v>
       </c>
       <c r="B333" t="n">
@@ -58009,9 +59478,14 @@
           <t>show</t>
         </is>
       </c>
+      <c r="BV333" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="n">
+      <c r="A334" t="n">
         <v>332</v>
       </c>
       <c r="B334" t="n">
@@ -58124,9 +59598,14 @@
           <t>show</t>
         </is>
       </c>
+      <c r="BV334" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="n">
+      <c r="A335" t="n">
         <v>333</v>
       </c>
       <c r="B335" t="n">
@@ -58271,9 +59750,14 @@
           <t>sleep</t>
         </is>
       </c>
+      <c r="BV335" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="n">
+      <c r="A336" t="n">
         <v>334</v>
       </c>
       <c r="B336" t="n">
@@ -58418,9 +59902,14 @@
           <t>put</t>
         </is>
       </c>
+      <c r="BV336" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="n">
+      <c r="A337" t="n">
         <v>335</v>
       </c>
       <c r="B337" t="n">
@@ -58565,9 +60054,14 @@
           <t>cook</t>
         </is>
       </c>
+      <c r="BV337" t="inlineStr">
+        <is>
+          <t>cook</t>
+        </is>
+      </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="n">
+      <c r="A338" t="n">
         <v>336</v>
       </c>
       <c r="B338" t="n">
@@ -58712,9 +60206,14 @@
           <t>sweep</t>
         </is>
       </c>
+      <c r="BV338" t="inlineStr">
+        <is>
+          <t>sweep</t>
+        </is>
+      </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="n">
+      <c r="A339" t="n">
         <v>337</v>
       </c>
       <c r="B339" t="n">
@@ -58859,9 +60358,14 @@
           <t>shatter</t>
         </is>
       </c>
+      <c r="BV339" t="inlineStr">
+        <is>
+          <t>shatter</t>
+        </is>
+      </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="n">
+      <c r="A340" t="n">
         <v>338</v>
       </c>
       <c r="B340" t="n">
@@ -59006,9 +60510,14 @@
           <t>take</t>
         </is>
       </c>
+      <c r="BV340" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="n">
+      <c r="A341" t="n">
         <v>339</v>
       </c>
       <c r="B341" t="n">
@@ -59157,9 +60666,14 @@
           <t>plait</t>
         </is>
       </c>
+      <c r="BV341" t="inlineStr">
+        <is>
+          <t>plait</t>
+        </is>
+      </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="n">
+      <c r="A342" t="n">
         <v>340</v>
       </c>
       <c r="B342" t="n">
@@ -59304,9 +60818,14 @@
           <t>stab</t>
         </is>
       </c>
+      <c r="BV342" t="inlineStr">
+        <is>
+          <t>stab</t>
+        </is>
+      </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="n">
+      <c r="A343" t="n">
         <v>341</v>
       </c>
       <c r="B343" t="n">
@@ -59451,9 +60970,14 @@
           <t>bite</t>
         </is>
       </c>
+      <c r="BV343" t="inlineStr">
+        <is>
+          <t>bite</t>
+        </is>
+      </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="n">
+      <c r="A344" t="n">
         <v>342</v>
       </c>
       <c r="B344" t="n">
@@ -59598,9 +61122,14 @@
           <t>rise</t>
         </is>
       </c>
+      <c r="BV344" t="inlineStr">
+        <is>
+          <t>rise</t>
+        </is>
+      </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="n">
+      <c r="A345" t="n">
         <v>343</v>
       </c>
       <c r="B345" t="n">
@@ -59745,9 +61274,14 @@
           <t>die</t>
         </is>
       </c>
+      <c r="BV345" t="inlineStr">
+        <is>
+          <t>die</t>
+        </is>
+      </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="n">
+      <c r="A346" t="n">
         <v>344</v>
       </c>
       <c r="B346" t="n">
@@ -59892,9 +61426,14 @@
           <t>hold</t>
         </is>
       </c>
+      <c r="BV346" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="n">
+      <c r="A347" t="n">
         <v>345</v>
       </c>
       <c r="B347" t="n">
@@ -60027,9 +61566,10 @@
       <c r="BS347" t="inlineStr"/>
       <c r="BT347" t="inlineStr"/>
       <c r="BU347" t="inlineStr"/>
+      <c r="BV347" t="inlineStr"/>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="n">
+      <c r="A348" t="n">
         <v>346</v>
       </c>
       <c r="B348" t="n">
@@ -60174,9 +61714,14 @@
           <t>sip</t>
         </is>
       </c>
+      <c r="BV348" t="inlineStr">
+        <is>
+          <t>sip</t>
+        </is>
+      </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="n">
+      <c r="A349" t="n">
         <v>347</v>
       </c>
       <c r="B349" t="n">
@@ -60345,9 +61890,14 @@
           <t>stop</t>
         </is>
       </c>
+      <c r="BV349" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="n">
+      <c r="A350" t="n">
         <v>348</v>
       </c>
       <c r="B350" t="n">
@@ -60492,9 +62042,14 @@
           <t>cough</t>
         </is>
       </c>
+      <c r="BV350" t="inlineStr">
+        <is>
+          <t>cough</t>
+        </is>
+      </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="n">
+      <c r="A351" t="n">
         <v>349</v>
       </c>
       <c r="B351" t="n">
@@ -60639,9 +62194,14 @@
           <t>return (transitive)</t>
         </is>
       </c>
+      <c r="BV351" t="inlineStr">
+        <is>
+          <t>return (transitive)</t>
+        </is>
+      </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="n">
+      <c r="A352" t="n">
         <v>350</v>
       </c>
       <c r="B352" t="n">
@@ -60786,9 +62346,14 @@
           <t>kindle</t>
         </is>
       </c>
+      <c r="BV352" t="inlineStr">
+        <is>
+          <t>kindle</t>
+        </is>
+      </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="n">
+      <c r="A353" t="n">
         <v>351</v>
       </c>
       <c r="B353" t="n">
@@ -60933,9 +62498,14 @@
           <t>hit</t>
         </is>
       </c>
+      <c r="BV353" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="n">
+      <c r="A354" t="n">
         <v>352</v>
       </c>
       <c r="B354" t="n">
@@ -61084,9 +62654,14 @@
           <t>touch</t>
         </is>
       </c>
+      <c r="BV354" t="inlineStr">
+        <is>
+          <t>touch</t>
+        </is>
+      </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="n">
+      <c r="A355" t="n">
         <v>353</v>
       </c>
       <c r="B355" t="n">
@@ -61231,9 +62806,14 @@
           <t>cook</t>
         </is>
       </c>
+      <c r="BV355" t="inlineStr">
+        <is>
+          <t>cook</t>
+        </is>
+      </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="n">
+      <c r="A356" t="n">
         <v>354</v>
       </c>
       <c r="B356" t="n">
@@ -61378,9 +62958,14 @@
           <t>throw</t>
         </is>
       </c>
+      <c r="BV356" t="inlineStr">
+        <is>
+          <t>throw</t>
+        </is>
+      </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="n">
+      <c r="A357" t="n">
         <v>355</v>
       </c>
       <c r="B357" t="n">
@@ -61525,9 +63110,14 @@
           <t>plait</t>
         </is>
       </c>
+      <c r="BV357" t="inlineStr">
+        <is>
+          <t>plait</t>
+        </is>
+      </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="n">
+      <c r="A358" t="n">
         <v>356</v>
       </c>
       <c r="B358" t="n">
@@ -61676,9 +63266,14 @@
           <t>braid</t>
         </is>
       </c>
+      <c r="BV358" t="inlineStr">
+        <is>
+          <t>braid</t>
+        </is>
+      </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="n">
+      <c r="A359" t="n">
         <v>357</v>
       </c>
       <c r="B359" t="n">
@@ -61827,9 +63422,14 @@
           <t>braid</t>
         </is>
       </c>
+      <c r="BV359" t="inlineStr">
+        <is>
+          <t>braid</t>
+        </is>
+      </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="n">
+      <c r="A360" t="n">
         <v>358</v>
       </c>
       <c r="B360" t="n">
@@ -61950,9 +63550,14 @@
           <t>enter</t>
         </is>
       </c>
+      <c r="BV360" t="inlineStr">
+        <is>
+          <t>enter</t>
+        </is>
+      </c>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="n">
+      <c r="A361" t="n">
         <v>359</v>
       </c>
       <c r="B361" t="n">
@@ -62097,9 +63702,14 @@
           <t>chase</t>
         </is>
       </c>
+      <c r="BV361" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="n">
+      <c r="A362" t="n">
         <v>360</v>
       </c>
       <c r="B362" t="n">
@@ -62244,9 +63854,14 @@
           <t>visit</t>
         </is>
       </c>
+      <c r="BV362" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="n">
+      <c r="A363" t="n">
         <v>361</v>
       </c>
       <c r="B363" t="n">
@@ -62367,6 +63982,11 @@
           <t>be called</t>
         </is>
       </c>
+      <c r="BV363" t="inlineStr">
+        <is>
+          <t>be called</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
